--- a/jira-import-template.xlsx
+++ b/jira-import-template.xlsx
@@ -17,14 +17,14 @@
     <sheet name="JIRA Stories" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$E$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$G$4</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
   <si>
     <t>Customer</t>
   </si>
@@ -92,16 +92,10 @@
     <t>Inquiry</t>
   </si>
   <si>
-    <t>TEST-913</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
     <t>Remove Field Type</t>
   </si>
   <si>
-    <t>Remove Related Supplier Field</t>
+    <t xml:space="preserve">Remove Related Supplier Field </t>
   </si>
   <si>
     <t>EQMS</t>
@@ -110,22 +104,22 @@
     <t>Quality Event</t>
   </si>
   <si>
-    <t>TEST-914</t>
-  </si>
-  <si>
-    <t>To Do</t>
-  </si>
-  <si>
     <t>Add Field</t>
   </si>
   <si>
-    <t>Change Details:  Add field called Current Version Number (free text)</t>
+    <t xml:space="preserve">Change Details:  Add field called Current Version Number (free text) </t>
   </si>
   <si>
     <t>Change Control</t>
   </si>
   <si>
-    <t>TEST-915</t>
+    <t xml:space="preserve">Change Details:  Add field called Ref no. (free text) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Assigned To Field </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remove Description Field </t>
   </si>
   <si>
     <t>CAPA</t>
@@ -140,16 +134,10 @@
     <t>Audits</t>
   </si>
   <si>
-    <t>Products</t>
-  </si>
-  <si>
-    <t>Contacts</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Tasks</t>
+    <t>Salesforce Objects</t>
+  </si>
+  <si>
+    <t>Custom Objects</t>
   </si>
   <si>
     <t>Global</t>
@@ -158,15 +146,6 @@
     <t>Key</t>
   </si>
   <si>
-    <t>TEST-910</t>
-  </si>
-  <si>
-    <t>TEST-911</t>
-  </si>
-  <si>
-    <t>TEST-912</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -177,13 +156,22 @@
   </si>
   <si>
     <t>DELIVERCOM</t>
+  </si>
+  <si>
+    <t>Field/Object</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>Related Supplier</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -207,6 +195,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -223,12 +233,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -244,16 +256,47 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,55 +642,55 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>42748</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
@@ -667,237 +710,330 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="120.625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="2" customWidth="1"/>
-    <col min="4" max="4" width="21.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="10.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69.875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.875" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:8" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
+      <c r="H1" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
+      <c r="E2" s="16"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="11" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="C3" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="D3" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="E3" s="16"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="B4" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6" t="s">
+      <c r="C4" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="E4" s="16"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="C5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="16"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>29</v>
-      </c>
+      <c r="C8" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E1"/>
-  <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-  </hyperlinks>
+  <autoFilter ref="A1:G4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
+    <col min="2" max="4" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="B5" s="5"/>
+      <c r="C5" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>27</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E5" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" t="s">
-        <v>50</v>
-      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/jira-import-template.xlsx
+++ b/jira-import-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="6795" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
   <si>
     <t>Customer</t>
   </si>
@@ -156,15 +156,6 @@
   </si>
   <si>
     <t>DELIVERCOM</t>
-  </si>
-  <si>
-    <t>Field/Object</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>Related Supplier</t>
   </si>
 </sst>
 </file>
@@ -256,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -280,21 +271,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
@@ -647,11 +635,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -710,26 +698,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="12" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="100.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="11" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69.875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -751,11 +738,8 @@
       <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>18</v>
       </c>
@@ -769,13 +753,10 @@
         <v>21</v>
       </c>
       <c r="E2" s="16"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="11" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+    </row>
+    <row r="3" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>22</v>
       </c>
@@ -789,13 +770,10 @@
         <v>25</v>
       </c>
       <c r="E3" s="16"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+    </row>
+    <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>26</v>
       </c>
@@ -809,10 +787,10 @@
         <v>28</v>
       </c>
       <c r="E4" s="16"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>26</v>
       </c>
@@ -825,11 +803,11 @@
       <c r="D5" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
@@ -842,11 +820,11 @@
       <c r="D6" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>22</v>
       </c>
@@ -860,10 +838,10 @@
         <v>25</v>
       </c>
       <c r="E7" s="16"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>22</v>
       </c>
@@ -876,23 +854,14 @@
       <c r="D8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="14"/>
-      <c r="B9" s="15"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -900,21 +869,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
-    <col min="2" max="4" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="11" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">

--- a/jira-import-template.xlsx
+++ b/jira-import-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="6795" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
   <si>
     <t>Customer</t>
   </si>
@@ -80,10 +80,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Modify Field Type</t>
-  </si>
-  <si>
-    <t>Change Contact to free text</t>
+    <t>Assign To</t>
+  </si>
+  <si>
+    <t>Current Sprint</t>
+  </si>
+  <si>
+    <t>Test Guy</t>
+  </si>
+  <si>
+    <t>Change Contacts to free text</t>
   </si>
   <si>
     <t>Complaints</t>
@@ -92,7 +98,10 @@
     <t>Inquiry</t>
   </si>
   <si>
-    <t>Remove Field Type</t>
+    <t>TEST-1061</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
   <si>
     <t xml:space="preserve">Remove Related Supplier Field </t>
@@ -104,24 +113,45 @@
     <t>Quality Event</t>
   </si>
   <si>
-    <t>Add Field</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Details:  Add field called Current Version Number (free text) </t>
+    <t>TEST-1062</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Detail:  Add field called Current Version Number (free text) </t>
   </si>
   <si>
     <t>Change Control</t>
   </si>
   <si>
-    <t xml:space="preserve">Change Details:  Add field called Ref no. (free text) </t>
+    <t>TEST-1063</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Detail:  Add field called Ref no. (free text) </t>
+  </si>
+  <si>
+    <t>TEST-1064</t>
   </si>
   <si>
     <t xml:space="preserve">Remove Assigned To Field </t>
   </si>
   <si>
+    <t>TEST-1065</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>TEST-1066</t>
+  </si>
+  <si>
     <t xml:space="preserve">Remove Description Field </t>
   </si>
   <si>
+    <t>TEST-1067</t>
+  </si>
+  <si>
     <t>CAPA</t>
   </si>
   <si>
@@ -144,6 +174,15 @@
   </si>
   <si>
     <t>Key</t>
+  </si>
+  <si>
+    <t>TEST-1058</t>
+  </si>
+  <si>
+    <t>TEST-1059</t>
+  </si>
+  <si>
+    <t>TEST-1060</t>
   </si>
   <si>
     <t>Title</t>
@@ -209,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -234,6 +273,21 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -247,7 +301,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -278,13 +332,27 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,10 +766,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -713,10 +781,12 @@
     <col min="5" max="5" width="69.875" style="10" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="11" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10.875" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -738,128 +808,172 @@
       <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H1" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" s="14" t="s">
+      <c r="B3" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="19"/>
+      <c r="F3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="19"/>
+      <c r="F4" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-    </row>
-    <row r="4" spans="1:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B4" s="15" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="D6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="14" t="s">
+      <c r="E6" s="22"/>
+      <c r="F6" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G6" s="22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="15" t="s">
+      <c r="E7" s="16"/>
+      <c r="F7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="19"/>
+      <c r="F8" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-    </row>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:G4"/>
+  <hyperlinks>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
@@ -869,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -889,48 +1003,54 @@
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="G1" s="2" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>36</v>
+        <v>46</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>38</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>50</v>
+      </c>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
       <c r="I2" s="5"/>
@@ -940,18 +1060,18 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -962,7 +1082,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>41</v>
+        <v>54</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -984,18 +1104,18 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>43</v>
+        <v>56</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>

--- a/jira-import-template.xlsx
+++ b/jira-import-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
   <si>
     <t>Customer</t>
   </si>
@@ -80,13 +80,16 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Assign To</t>
-  </si>
-  <si>
-    <t>Current Sprint</t>
-  </si>
-  <si>
-    <t>Test Guy</t>
+    <t>Assignee</t>
+  </si>
+  <si>
+    <t>Sprint</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Change Field</t>
   </si>
   <si>
     <t>Change Contacts to free text</t>
@@ -98,10 +101,10 @@
     <t>Inquiry</t>
   </si>
   <si>
-    <t>TEST-1061</t>
-  </si>
-  <si>
-    <t>In Progress</t>
+    <t>Issue: TEST-1105 already exists.</t>
+  </si>
+  <si>
+    <t>admin</t>
   </si>
   <si>
     <t xml:space="preserve">Remove Related Supplier Field </t>
@@ -113,43 +116,40 @@
     <t>Quality Event</t>
   </si>
   <si>
-    <t>TEST-1062</t>
+    <t>Issue: TEST-1106 already exists.</t>
+  </si>
+  <si>
+    <t>Modify</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Detail:  Add field called Current Version Number (free text) </t>
+  </si>
+  <si>
+    <t>Change Control</t>
+  </si>
+  <si>
+    <t>TEST-1115</t>
   </si>
   <si>
     <t>To Do</t>
   </si>
   <si>
-    <t xml:space="preserve">Change Detail:  Add field called Current Version Number (free text) </t>
-  </si>
-  <si>
-    <t>Change Control</t>
-  </si>
-  <si>
-    <t>TEST-1063</t>
-  </si>
-  <si>
     <t xml:space="preserve">Change Detail:  Add field called Ref no. (free text) </t>
   </si>
   <si>
-    <t>TEST-1064</t>
+    <t>TEST-1116</t>
   </si>
   <si>
     <t xml:space="preserve">Remove Assigned To Field </t>
   </si>
   <si>
-    <t>TEST-1065</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>TEST-1066</t>
+    <t>Issue: TEST-1110 already exists.</t>
   </si>
   <si>
     <t xml:space="preserve">Remove Description Field </t>
   </si>
   <si>
-    <t>TEST-1067</t>
+    <t>Issue: TEST-1111 already exists.</t>
   </si>
   <si>
     <t>CAPA</t>
@@ -176,13 +176,13 @@
     <t>Key</t>
   </si>
   <si>
-    <t>TEST-1058</t>
-  </si>
-  <si>
-    <t>TEST-1059</t>
-  </si>
-  <si>
-    <t>TEST-1060</t>
+    <t>TEST-1112</t>
+  </si>
+  <si>
+    <t>TEST-1113</t>
+  </si>
+  <si>
+    <t>TEST-1114</t>
   </si>
   <si>
     <t>Title</t>
@@ -248,7 +248,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,17 +275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -301,7 +291,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -323,15 +313,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,20 +329,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -703,11 +679,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -769,24 +745,24 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="100.625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="69.875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="94.25" style="11" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="10" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -808,171 +784,170 @@
       <c r="G1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="J1" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="15" t="s">
+    </row>
+    <row r="2" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="14" t="s">
+      <c r="C2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="16"/>
-      <c r="F2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="16" t="s">
+      <c r="E2" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="H2" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="17" t="s">
+    </row>
+    <row r="3" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="E3" s="10" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" s="18" t="s">
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D4" s="17" t="s">
+      <c r="B4" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19" t="s">
+      <c r="C4" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E4" s="14"/>
+      <c r="F4" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="16"/>
+        <v>33</v>
+      </c>
+      <c r="E5" s="14"/>
       <c r="F5" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="20" t="s">
+      <c r="H5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="22" t="s">
+      <c r="D6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="11" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="14" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16" t="s">
+      <c r="D7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="18" t="s">
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="17" t="s">
+      <c r="C8" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19" t="s">
+      <c r="D8" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="G8" s="19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <autoFilter ref="A1:G4"/>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F3" r:id="rId2"/>
-    <hyperlink ref="F4" r:id="rId3"/>
-    <hyperlink ref="F5" r:id="rId4"/>
-    <hyperlink ref="F6" r:id="rId5"/>
-    <hyperlink ref="F7" r:id="rId6"/>
-    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F4" r:id="rId1"/>
+    <hyperlink ref="F5" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -981,41 +956,41 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C2" sqref="C2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
-    <col min="2" max="4" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>43</v>
@@ -1064,14 +1039,14 @@
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
@@ -1124,6 +1099,28 @@
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/jira-import-template.xlsx
+++ b/jira-import-template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
   <si>
     <t>Customer</t>
   </si>
@@ -71,7 +71,7 @@
     <t>QE Process</t>
   </si>
   <si>
-    <t>Kickoff Notes</t>
+    <t>Additional Notes</t>
   </si>
   <si>
     <t>JIRA Task</t>
@@ -86,9 +86,6 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Change Field</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
     <t>Issue: TEST-1105 already exists.</t>
   </si>
   <si>
+    <t>Duplicate</t>
+  </si>
+  <si>
     <t>admin</t>
   </si>
   <si>
@@ -128,16 +128,13 @@
     <t>Change Control</t>
   </si>
   <si>
-    <t>TEST-1115</t>
-  </si>
-  <si>
-    <t>To Do</t>
+    <t>Issue: TEST-1115 already exists.</t>
   </si>
   <si>
     <t xml:space="preserve">Change Detail:  Add field called Ref no. (free text) </t>
   </si>
   <si>
-    <t>TEST-1116</t>
+    <t>Issue: TEST-1116 already exists.</t>
   </si>
   <si>
     <t xml:space="preserve">Remove Assigned To Field </t>
@@ -152,6 +149,27 @@
     <t>Issue: TEST-1111 already exists.</t>
   </si>
   <si>
+    <t>Test 1  Field</t>
+  </si>
+  <si>
+    <t>TEST-1117</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Test 2  Field</t>
+  </si>
+  <si>
+    <t>TEST-1118</t>
+  </si>
+  <si>
+    <t>Test 3  Field</t>
+  </si>
+  <si>
+    <t>TEST-1119</t>
+  </si>
+  <si>
     <t>CAPA</t>
   </si>
   <si>
@@ -195,13 +213,16 @@
   </si>
   <si>
     <t>DELIVERCOM</t>
+  </si>
+  <si>
+    <t>Board</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,8 +268,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -275,7 +303,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
   </fills>
@@ -288,10 +321,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -313,24 +347,32 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="2">
@@ -742,27 +784,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="94.25" style="11" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="10" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.375" style="13" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="94.25" style="13" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" style="12" customWidth="1"/>
     <col min="9" max="9" width="14.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -790,164 +831,263 @@
       <c r="I1" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="J1" s="7" t="s">
+    </row>
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="D2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="E2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="10" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="C5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="14" t="s">
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="16" t="s">
+      <c r="D6" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="C7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="10" t="s">
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="C9" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H9" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="10" t="s">
+      <c r="I9" s="16"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E10" s="14"/>
+      <c r="F10" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I10" s="16"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H7" t="s">
+      <c r="C11" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="F11" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="16" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="I11" s="16"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G4"/>
   <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1"/>
-    <hyperlink ref="F5" r:id="rId2"/>
+    <hyperlink ref="F9" r:id="rId1"/>
+    <hyperlink ref="F10" r:id="rId2"/>
+    <hyperlink ref="F11" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -956,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L6"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -978,13 +1118,13 @@
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>29</v>
@@ -993,38 +1133,38 @@
         <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1035,11 +1175,11 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
@@ -1057,7 +1197,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -1079,18 +1219,18 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1121,6 +1261,38 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>

--- a/jira-import-template.xlsx
+++ b/jira-import-template.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan.Astemborski\Desktop\JIRA-Import\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer Info" sheetId="1" r:id="rId1"/>
-    <sheet name="Requirements" sheetId="2" r:id="rId2"/>
-    <sheet name="JIRA Stories" sheetId="3" r:id="rId3"/>
+    <sheet name="Customer Info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="JIRA Stories" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
+    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
   <si>
     <t>Customer</t>
   </si>
@@ -221,64 +222,65 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="7">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="0"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -291,13 +293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.39997558519241921"/>
+        <fgColor theme="8" tint="0.3999755851924192"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.79998168889431442"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -311,6 +313,11 @@
         <fgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00DBDBDB"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -322,97 +329,69 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf borderId="0" fillId="2" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="23">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle builtinId="39" name="40% - Accent3" xfId="1"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFD7D7D7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="1"/>
-      <tableStyleElement type="headerRow" dxfId="0"/>
-    </tableStyle>
-  </tableStyles>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -712,23 +691,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="13.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="12" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" max="2" min="2" style="16" width="13.5"/>
+    <col bestFit="1" customWidth="1" max="3" min="3" style="16" width="8.875"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="16" width="10.25"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="16" width="12.5"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="16" width="15.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="31.5" r="1" s="16" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,7 +731,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -761,49 +744,53 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="6" t="n">
         <v>42748</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="n"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="n"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="94.25" style="13" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="12" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="12" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="11" width="31.375"/>
+    <col customWidth="1" max="2" min="2" style="12" width="94.25"/>
+    <col customWidth="1" max="3" min="3" style="11" width="13.75"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="15.25"/>
+    <col customWidth="1" max="5" min="5" style="10" width="65.375"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="11" width="13.75"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="11.25"/>
+    <col customWidth="1" max="8" min="8" style="16" width="13"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="16" width="14.875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row customFormat="1" customHeight="1" ht="36.75" r="1" s="9" spans="1:9">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -832,255 +819,255 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+    <row customHeight="1" ht="47.25" r="2" s="16" spans="1:9">
+      <c r="A2" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="F2" s="20" t="n"/>
+      <c r="G2" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="19"/>
-    </row>
-    <row r="3" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
+      <c r="I2" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="94.5" r="3" s="16" spans="1:9">
+      <c r="A3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="F3" s="20" t="n"/>
+      <c r="G3" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="I3" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="47.25" r="4" s="16" spans="1:9">
+      <c r="A4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
+      <c r="F4" s="20" t="n"/>
+      <c r="G4" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
+      <c r="I4" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="5" s="16" spans="1:9">
+      <c r="A5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="17" t="s">
+      <c r="E5" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
+      <c r="F5" s="20" t="n"/>
+      <c r="G5" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
+      <c r="I5" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="6" s="16" spans="1:9">
+      <c r="A6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="17" t="s">
+      <c r="E6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
+      <c r="F6" s="20" t="n"/>
+      <c r="G6" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
+      <c r="I6" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="7" s="16" spans="1:9">
+      <c r="A7" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="17" t="s">
+      <c r="E7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
+      <c r="F7" s="20" t="n"/>
+      <c r="G7" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
+      <c r="I7" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="15" r="8" s="16" spans="1:9">
+      <c r="A8" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="E8" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
+      <c r="F8" s="20" t="n"/>
+      <c r="G8" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="19"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="I8" s="22" t="n"/>
+    </row>
+    <row customHeight="1" ht="14.25" r="9" s="16" spans="1:9">
+      <c r="A9" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="14"/>
-      <c r="F9" s="16" t="s">
+      <c r="E9" s="13" t="n"/>
+      <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="16" t="s">
+      <c r="G9" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H9" s="16" t="s">
+      <c r="H9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="16"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
+      <c r="I9" s="15" t="n"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="14"/>
-      <c r="F10" s="16" t="s">
+      <c r="E10" s="13" t="n"/>
+      <c r="F10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="H10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="16"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="I10" s="15" t="n"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="14" t="s">
+      <c r="C11" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D11" s="14" t="s">
+      <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="14"/>
-      <c r="F11" s="16" t="s">
+      <c r="E11" s="13" t="n"/>
+      <c r="F11" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="H11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="15" t="n"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4"/>
@@ -1089,34 +1076,38 @@
     <hyperlink ref="F10" r:id="rId2"/>
     <hyperlink ref="F11" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
-    <col min="2" max="4" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="12" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="12" bestFit="1" customWidth="1"/>
+    <col customWidth="1" max="1" min="1" style="3" width="12.75"/>
+    <col bestFit="1" customWidth="1" max="4" min="2" style="16" width="11"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="16" width="12.5"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="16" width="14.125"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="16" width="11"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="16" width="22.375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="16" width="11"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="16" width="16.5"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="16" width="14.25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row customHeight="1" ht="30" r="1" s="16" spans="1:12">
+      <c r="A1" s="2" t="n"/>
       <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1151,150 +1142,150 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customHeight="1" ht="15.75" r="2" s="16" spans="1:12">
       <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="5" t="n"/>
       <c r="C2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="5"/>
+      <c r="D2" s="5" t="n"/>
       <c r="E2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-    </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G2" s="5" t="n"/>
+      <c r="H2" s="5" t="n"/>
+      <c r="I2" s="5" t="n"/>
+      <c r="J2" s="5" t="n"/>
+      <c r="K2" s="5" t="n"/>
+      <c r="L2" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="3" s="16" spans="1:12">
       <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="5" t="n"/>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5"/>
+      <c r="D3" s="5" t="n"/>
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-    </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="5" t="n"/>
+      <c r="H3" s="5" t="n"/>
+      <c r="I3" s="5" t="n"/>
+      <c r="J3" s="5" t="n"/>
+      <c r="K3" s="5" t="n"/>
+      <c r="L3" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="4" s="16" spans="1:12">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="n"/>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5"/>
+      <c r="D4" s="5" t="n"/>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-    </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="5" t="n"/>
+      <c r="H4" s="5" t="n"/>
+      <c r="I4" s="5" t="n"/>
+      <c r="J4" s="5" t="n"/>
+      <c r="K4" s="5" t="n"/>
+      <c r="L4" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="5" s="16" spans="1:12">
       <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="5" t="n"/>
       <c r="C5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="5"/>
+      <c r="D5" s="5" t="n"/>
       <c r="E5" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-    </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="5" t="n"/>
+      <c r="H5" s="5" t="n"/>
+      <c r="I5" s="5" t="n"/>
+      <c r="J5" s="5" t="n"/>
+      <c r="K5" s="5" t="n"/>
+      <c r="L5" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="6" s="16" spans="1:12">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="5" t="n"/>
       <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5" t="n"/>
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-    </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="5" t="n"/>
+      <c r="H6" s="5" t="n"/>
+      <c r="I6" s="5" t="n"/>
+      <c r="J6" s="5" t="n"/>
+      <c r="K6" s="5" t="n"/>
+      <c r="L6" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="7" s="16" spans="1:12">
       <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-    </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="5" t="n"/>
+      <c r="C7" s="5" t="n"/>
+      <c r="D7" s="5" t="n"/>
+      <c r="E7" s="5" t="n"/>
+      <c r="F7" s="5" t="n"/>
+      <c r="G7" s="5" t="n"/>
+      <c r="H7" s="5" t="n"/>
+      <c r="I7" s="5" t="n"/>
+      <c r="J7" s="5" t="n"/>
+      <c r="K7" s="5" t="n"/>
+      <c r="L7" s="5" t="n"/>
+    </row>
+    <row customHeight="1" ht="15.75" r="8" s="16" spans="1:12">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
+      <c r="B8" s="5" t="n"/>
+      <c r="C8" s="5" t="n"/>
+      <c r="D8" s="5" t="n"/>
+      <c r="E8" s="5" t="n"/>
+      <c r="F8" s="5" t="n"/>
+      <c r="G8" s="5" t="n"/>
+      <c r="H8" s="5" t="n"/>
+      <c r="I8" s="5" t="n"/>
+      <c r="J8" s="5" t="n"/>
+      <c r="K8" s="5" t="n"/>
+      <c r="L8" s="5" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/jira-import-template.xlsx
+++ b/jira-import-template.xlsx
@@ -1,31 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan.Astemborski\Desktop\JIRA-Import\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView activeTab="1"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Customer Info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Requirements" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="JIRA Stories" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Customer Info" sheetId="1" r:id="rId1"/>
+    <sheet name="Requirements" sheetId="2" r:id="rId2"/>
+    <sheet name="JIRA Stories" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
-    <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">Requirements!$A$1:$G$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Requirements!$A$1:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
   <si>
     <t>Customer</t>
   </si>
@@ -222,65 +221,64 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="0"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="14"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="14"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -293,13 +291,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.3999755851924192"/>
+        <fgColor theme="8" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,11 +311,6 @@
         <fgColor rgb="FFDBDBDB"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00DBDBDB"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -329,69 +322,97 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
-    <xf borderId="0" fillId="2" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="3" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="4" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="6" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
-    <cellStyle builtinId="39" name="40% - Accent3" xfId="1"/>
+    <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -691,27 +712,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="16" width="13.5"/>
-    <col bestFit="1" customWidth="1" max="3" min="3" style="16" width="8.875"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="16" width="10.25"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="16" width="12.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="16" width="15.25"/>
+    <col min="2" max="2" width="13.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="31.5" r="1" s="16" spans="1:6">
+    <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -731,7 +748,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>6</v>
       </c>
@@ -744,53 +761,49 @@
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E2" s="6" t="n">
+      <c r="E2" s="6">
         <v>42748</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="1" t="n"/>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="1" t="n"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="1" t="n"/>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" zoomScale="85" zoomScaleNormal="85">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15.75" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="11" width="31.375"/>
-    <col customWidth="1" max="2" min="2" style="12" width="94.25"/>
-    <col customWidth="1" max="3" min="3" style="11" width="13.75"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="11" width="15.25"/>
-    <col customWidth="1" max="5" min="5" style="10" width="65.375"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="11" width="13.75"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="11" width="11.25"/>
-    <col customWidth="1" max="8" min="8" style="16" width="13"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="16" width="14.875"/>
+    <col min="1" max="1" width="31.375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="94.25" style="12" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.375" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="16" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="36.75" r="1" s="9" spans="1:9">
+    <row r="1" spans="1:9" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>11</v>
       </c>
@@ -819,182 +832,182 @@
         <v>19</v>
       </c>
     </row>
-    <row customHeight="1" ht="47.25" r="2" s="16" spans="1:9">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="21" t="s">
+      <c r="B2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="20" t="n"/>
-      <c r="G2" s="20" t="s">
+      <c r="F2" s="17"/>
+      <c r="G2" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="94.5" r="3" s="16" spans="1:9">
-      <c r="A3" s="20" t="s">
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="20" t="s">
+      <c r="E3" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="20" t="n"/>
-      <c r="G3" s="20" t="s">
+      <c r="F3" s="17"/>
+      <c r="G3" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="20" t="s">
+      <c r="H3" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="47.25" r="4" s="16" spans="1:9">
-      <c r="A4" s="20" t="s">
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="20" t="s">
+      <c r="E4" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="20" t="n"/>
-      <c r="G4" s="20" t="s">
+      <c r="F4" s="17"/>
+      <c r="G4" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="H4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="5" s="16" spans="1:9">
-      <c r="A5" s="20" t="s">
+      <c r="I4" s="19"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="20" t="s">
+      <c r="E5" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="20" t="n"/>
-      <c r="G5" s="20" t="s">
+      <c r="F5" s="17"/>
+      <c r="G5" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="6" s="16" spans="1:9">
-      <c r="A6" s="20" t="s">
+      <c r="I5" s="19"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E6" s="20" t="s">
+      <c r="E6" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="20" t="n"/>
-      <c r="G6" s="20" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="20" t="s">
+      <c r="H6" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="7" s="16" spans="1:9">
-      <c r="A7" s="20" t="s">
+      <c r="I6" s="19"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="20" t="s">
+      <c r="E7" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="20" t="n"/>
-      <c r="G7" s="20" t="s">
+      <c r="F7" s="17"/>
+      <c r="G7" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H7" s="20" t="s">
+      <c r="H7" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="15" r="8" s="16" spans="1:9">
-      <c r="A8" s="20" t="s">
+      <c r="I7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="F8" s="20" t="n"/>
-      <c r="G8" s="20" t="s">
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="20" t="s">
+      <c r="H8" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="I8" s="22" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.25" r="9" s="16" spans="1:9">
+      <c r="I8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
         <v>41</v>
       </c>
@@ -1007,7 +1020,7 @@
       <c r="D9" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="13" t="n"/>
+      <c r="E9" s="13"/>
       <c r="F9" s="15" t="s">
         <v>42</v>
       </c>
@@ -1017,9 +1030,9 @@
       <c r="H9" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="15" t="n"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
         <v>44</v>
       </c>
@@ -1032,7 +1045,7 @@
       <c r="D10" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="13" t="n"/>
+      <c r="E10" s="13"/>
       <c r="F10" s="15" t="s">
         <v>45</v>
       </c>
@@ -1042,9 +1055,9 @@
       <c r="H10" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="15" t="n"/>
-    </row>
-    <row r="11" spans="1:9">
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
         <v>46</v>
       </c>
@@ -1057,7 +1070,7 @@
       <c r="D11" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="13" t="n"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="15" t="s">
         <v>47</v>
       </c>
@@ -1067,7 +1080,7 @@
       <c r="H11" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="15" t="n"/>
+      <c r="I11" s="15"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4"/>
@@ -1076,38 +1089,34 @@
     <hyperlink ref="F10" r:id="rId2"/>
     <hyperlink ref="F11" r:id="rId3"/>
   </hyperlinks>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="3" width="12.75"/>
-    <col bestFit="1" customWidth="1" max="4" min="2" style="16" width="11"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="16" width="12.5"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="16" width="14.125"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="16" width="11"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="16" width="22.375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="16" width="11"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="16" width="16.5"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="16" width="14.25"/>
+    <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
+    <col min="2" max="4" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="30" r="1" s="16" spans="1:12">
-      <c r="A1" s="2" t="n"/>
+    <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>22</v>
       </c>
@@ -1142,150 +1151,150 @@
         <v>54</v>
       </c>
     </row>
-    <row customHeight="1" ht="15.75" r="2" s="16" spans="1:12">
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="5" t="n"/>
+      <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="5" t="n"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
         <v>57</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="G2" s="5" t="n"/>
-      <c r="H2" s="5" t="n"/>
-      <c r="I2" s="5" t="n"/>
-      <c r="J2" s="5" t="n"/>
-      <c r="K2" s="5" t="n"/>
-      <c r="L2" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="3" s="16" spans="1:12">
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B3" s="5" t="n"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="5" t="n"/>
+      <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
         <v>29</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="5" t="n"/>
-      <c r="H3" s="5" t="n"/>
-      <c r="I3" s="5" t="n"/>
-      <c r="J3" s="5" t="n"/>
-      <c r="K3" s="5" t="n"/>
-      <c r="L3" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="4" s="16" spans="1:12">
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+    </row>
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="5" t="n"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D4" s="5" t="n"/>
+      <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G4" s="5" t="n"/>
-      <c r="H4" s="5" t="n"/>
-      <c r="I4" s="5" t="n"/>
-      <c r="J4" s="5" t="n"/>
-      <c r="K4" s="5" t="n"/>
-      <c r="L4" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="5" s="16" spans="1:12">
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+    </row>
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B5" s="5" t="n"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="5" t="n"/>
+      <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>62</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G5" s="5" t="n"/>
-      <c r="H5" s="5" t="n"/>
-      <c r="I5" s="5" t="n"/>
-      <c r="J5" s="5" t="n"/>
-      <c r="K5" s="5" t="n"/>
-      <c r="L5" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="6" s="16" spans="1:12">
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="5" t="n"/>
+      <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="5" t="n"/>
+      <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
         <v>26</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="5" t="n"/>
-      <c r="H6" s="5" t="n"/>
-      <c r="I6" s="5" t="n"/>
-      <c r="J6" s="5" t="n"/>
-      <c r="K6" s="5" t="n"/>
-      <c r="L6" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="7" s="16" spans="1:12">
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+    </row>
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B7" s="5" t="n"/>
-      <c r="C7" s="5" t="n"/>
-      <c r="D7" s="5" t="n"/>
-      <c r="E7" s="5" t="n"/>
-      <c r="F7" s="5" t="n"/>
-      <c r="G7" s="5" t="n"/>
-      <c r="H7" s="5" t="n"/>
-      <c r="I7" s="5" t="n"/>
-      <c r="J7" s="5" t="n"/>
-      <c r="K7" s="5" t="n"/>
-      <c r="L7" s="5" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="8" s="16" spans="1:12">
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+    </row>
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="5" t="n"/>
-      <c r="C8" s="5" t="n"/>
-      <c r="D8" s="5" t="n"/>
-      <c r="E8" s="5" t="n"/>
-      <c r="F8" s="5" t="n"/>
-      <c r="G8" s="5" t="n"/>
-      <c r="H8" s="5" t="n"/>
-      <c r="I8" s="5" t="n"/>
-      <c r="J8" s="5" t="n"/>
-      <c r="K8" s="5" t="n"/>
-      <c r="L8" s="5" t="n"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/jira-import-template.xlsx
+++ b/jira-import-template.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Customer Info" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="75">
   <si>
     <t>Customer</t>
   </si>
@@ -86,10 +86,10 @@
     <t>Sprint</t>
   </si>
   <si>
-    <t>Change Field</t>
-  </si>
-  <si>
-    <t>Change Contacts to free text</t>
+    <t>Add Field</t>
+  </si>
+  <si>
+    <t>In the product section, have free text options to enter in Product, Lot Number, NDC Number and Facility</t>
   </si>
   <si>
     <t>Complaints</t>
@@ -98,78 +98,105 @@
     <t>Inquiry</t>
   </si>
   <si>
-    <t>Issue: TEST-1105 already exists.</t>
+    <t>TEST-1185</t>
+  </si>
+  <si>
+    <t>In Progress</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Remove Field Type</t>
+  </si>
+  <si>
+    <t>In the complaint determination section, removed manufactured by company</t>
+  </si>
+  <si>
+    <t>TEST-1186</t>
+  </si>
+  <si>
+    <t>To Do</t>
+  </si>
+  <si>
+    <t>Modify Field Values</t>
+  </si>
+  <si>
+    <t>In the compaint details, change the following inputs for the Type category to: Drug Product, Primary Container, Secondary Container, Tertiary Container, Shipping Container, Label, Package Insert</t>
+  </si>
+  <si>
+    <t>Change Control</t>
+  </si>
+  <si>
+    <t>TEST-1187</t>
+  </si>
+  <si>
+    <t>Modify Field Type</t>
+  </si>
+  <si>
+    <t>Change Customer to free text</t>
+  </si>
+  <si>
+    <t>TEST-1188</t>
+  </si>
+  <si>
+    <t>Under Location have the following inputs only: None, Laboratory, Manufacturing, Warehouse, Packaging, Formulation, Shipping, Other</t>
+  </si>
+  <si>
+    <t>EQMS</t>
+  </si>
+  <si>
+    <t>Quality Event</t>
+  </si>
+  <si>
+    <t>TEST-1189</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>Change Equipment to free text</t>
+  </si>
+  <si>
+    <t>TEST-1190</t>
+  </si>
+  <si>
+    <t>Remove Related Supplier Field</t>
+  </si>
+  <si>
+    <t>TEST-1191</t>
+  </si>
+  <si>
+    <t>Modify Field</t>
+  </si>
+  <si>
+    <t>Change Supplier Contact Person to just be Contact Person</t>
+  </si>
+  <si>
+    <t>TEST-1192</t>
+  </si>
+  <si>
+    <t>Change Product in this spot to just be free text</t>
+  </si>
+  <si>
+    <t>TEST-1193</t>
+  </si>
+  <si>
+    <t>Add a field Called Facility here as a free text (in the Event Identification section)</t>
+  </si>
+  <si>
+    <t>TEST-1194</t>
+  </si>
+  <si>
+    <t>Add a Field Called Facility here as a free text (in the Event Identification section)</t>
+  </si>
+  <si>
+    <t>Issue: TEST-1194 already exists.</t>
   </si>
   <si>
     <t>Duplicate</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Related Supplier Field </t>
-  </si>
-  <si>
-    <t>EQMS</t>
-  </si>
-  <si>
-    <t>Quality Event</t>
-  </si>
-  <si>
-    <t>Issue: TEST-1106 already exists.</t>
-  </si>
-  <si>
-    <t>Modify</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Detail:  Add field called Current Version Number (free text) </t>
-  </si>
-  <si>
-    <t>Change Control</t>
-  </si>
-  <si>
-    <t>Issue: TEST-1115 already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Change Detail:  Add field called Ref no. (free text) </t>
-  </si>
-  <si>
-    <t>Issue: TEST-1116 already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Assigned To Field </t>
-  </si>
-  <si>
-    <t>Issue: TEST-1110 already exists.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Remove Description Field </t>
-  </si>
-  <si>
-    <t>Issue: TEST-1111 already exists.</t>
-  </si>
-  <si>
-    <t>Test 1  Field</t>
-  </si>
-  <si>
-    <t>TEST-1117</t>
-  </si>
-  <si>
-    <t>Done</t>
-  </si>
-  <si>
-    <t>Test 2  Field</t>
-  </si>
-  <si>
-    <t>TEST-1118</t>
-  </si>
-  <si>
-    <t>Test 3  Field</t>
-  </si>
-  <si>
-    <t>TEST-1119</t>
-  </si>
-  <si>
     <t>CAPA</t>
   </si>
   <si>
@@ -194,13 +221,13 @@
     <t>Key</t>
   </si>
   <si>
-    <t>TEST-1112</t>
-  </si>
-  <si>
-    <t>TEST-1113</t>
-  </si>
-  <si>
-    <t>TEST-1114</t>
+    <t>TEST-1182</t>
+  </si>
+  <si>
+    <t>TEST-1183</t>
+  </si>
+  <si>
+    <t>TEST-1184</t>
   </si>
   <si>
     <t>Title</t>
@@ -216,6 +243,12 @@
   </si>
   <si>
     <t>Board</t>
+  </si>
+  <si>
+    <t>TEST Board</t>
+  </si>
+  <si>
+    <t>TEST Sprint 15</t>
   </si>
 </sst>
 </file>
@@ -276,7 +309,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -303,6 +336,16 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
@@ -325,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -347,29 +390,62 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="40% - Accent3" xfId="1" builtinId="39"/>
@@ -721,11 +797,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.875" style="16" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.25" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.875" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.25" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.25" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,23 +860,23 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.375" style="11" customWidth="1"/>
-    <col min="2" max="2" width="94.25" style="12" customWidth="1"/>
-    <col min="3" max="3" width="13.75" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.375" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.75" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.25" style="11" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13" style="16" customWidth="1"/>
-    <col min="9" max="9" width="14.875" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.375" style="12" customWidth="1"/>
+    <col min="2" max="2" width="75.5" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.75" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.75" style="10" customWidth="1"/>
+    <col min="6" max="6" width="13.75" style="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13" style="12" customWidth="1"/>
+    <col min="9" max="9" width="14.875" style="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="9" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -833,261 +909,291 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="14"/>
+      <c r="F2" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I2" s="19"/>
+      <c r="I2" s="16"/>
     </row>
     <row r="3" spans="1:9" ht="94.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B3" s="18" t="s">
+      <c r="A3" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="B3" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="C3" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="G3" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17" t="s">
+      <c r="H3" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="23"/>
+    </row>
+    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H4" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="19"/>
-    </row>
-    <row r="4" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
+      <c r="I4" s="16"/>
+    </row>
+    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="G5" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="I5" s="23"/>
+    </row>
+    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="17" t="s">
+      <c r="B6" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="26"/>
+      <c r="F6" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H6" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="19"/>
-    </row>
-    <row r="5" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="18" t="s">
+      <c r="I6" s="28"/>
+    </row>
+    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="C5" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H5" s="17" t="s">
+      <c r="B7" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="F7" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="G7" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="I5" s="19"/>
-    </row>
-    <row r="6" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="17" t="s">
+      <c r="I7" s="23"/>
+    </row>
+    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="26"/>
+      <c r="F8" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="I6" s="19"/>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I7" s="19"/>
-    </row>
-    <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H8" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="I8" s="19"/>
+      <c r="I8" s="28"/>
     </row>
     <row r="9" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>28</v>
-      </c>
       <c r="D9" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G9" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H9" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="18"/>
+      <c r="F9" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="H9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="16"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="14" t="s">
+      <c r="A10" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="G10" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H10" s="15" t="s">
+      <c r="D10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="15"/>
+      <c r="I10" s="23"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B11" s="14" t="s">
+      <c r="A11" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H11" s="15" t="s">
+      <c r="D11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="30"/>
+      <c r="F11" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="I11" s="15"/>
+      <c r="I11" s="23"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G4"/>
   <hyperlinks>
-    <hyperlink ref="F9" r:id="rId1"/>
-    <hyperlink ref="F10" r:id="rId2"/>
-    <hyperlink ref="F11" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
+    <hyperlink ref="F5" r:id="rId4"/>
+    <hyperlink ref="F6" r:id="rId5"/>
+    <hyperlink ref="F7" r:id="rId6"/>
+    <hyperlink ref="F8" r:id="rId7"/>
+    <hyperlink ref="F9" r:id="rId8"/>
+    <hyperlink ref="F10" r:id="rId9"/>
+    <hyperlink ref="F11" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
@@ -1099,20 +1205,20 @@
   <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.75" style="3" customWidth="1"/>
-    <col min="2" max="4" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11" style="16" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.25" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.25" style="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1124,47 +1230,47 @@
         <v>23</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>33</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="5" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="G2" s="5"/>
       <c r="H2" s="5"/>
@@ -1175,7 +1281,7 @@
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
@@ -1183,7 +1289,7 @@
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>33</v>
@@ -1197,7 +1303,7 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>60</v>
+        <v>69</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5" t="s">
@@ -1219,18 +1325,18 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
@@ -1263,13 +1369,19 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
+      <c r="C7" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>73</v>
+      </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
@@ -1282,10 +1394,16 @@
         <v>19</v>
       </c>
       <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
+      <c r="C8" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E8" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>74</v>
+      </c>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
